--- a/Input/560113.xlsx
+++ b/Input/560113.xlsx
@@ -12,68 +12,68 @@
     <sheet name="Enquiries" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="A108272186T">Data1!$M$1:$M$10,Data1!$M$215:$M$243</definedName>
-    <definedName name="A108272186T_Data">Data1!$M$215:$M$243</definedName>
-    <definedName name="A108272186T_Latest">Data1!$M$243</definedName>
-    <definedName name="A108272187V">Data1!$E$1:$E$10,Data1!$E$215:$E$243</definedName>
-    <definedName name="A108272187V_Data">Data1!$E$215:$E$243</definedName>
-    <definedName name="A108272187V_Latest">Data1!$E$243</definedName>
-    <definedName name="A108273775J">Data1!$R$1:$R$10,Data1!$R$11:$R$243</definedName>
-    <definedName name="A108273775J_Data">Data1!$R$11:$R$243</definedName>
-    <definedName name="A108273775J_Latest">Data1!$R$243</definedName>
-    <definedName name="A108276722J">Data1!$K$1:$K$10,Data1!$K$215:$K$243</definedName>
-    <definedName name="A108276722J_Data">Data1!$K$215:$K$243</definedName>
-    <definedName name="A108276722J_Latest">Data1!$K$243</definedName>
-    <definedName name="A108276723K">Data1!$C$1:$C$10,Data1!$C$215:$C$243</definedName>
-    <definedName name="A108276723K_Data">Data1!$C$215:$C$243</definedName>
-    <definedName name="A108276723K_Latest">Data1!$C$243</definedName>
-    <definedName name="A108276981A">Data1!$J$1:$J$10,Data1!$J$11:$J$243</definedName>
-    <definedName name="A108276981A_Data">Data1!$J$11:$J$243</definedName>
-    <definedName name="A108276981A_Latest">Data1!$J$243</definedName>
-    <definedName name="A108276982C">Data1!$B$1:$B$10,Data1!$B$215:$B$243</definedName>
-    <definedName name="A108276982C_Data">Data1!$B$215:$B$243</definedName>
-    <definedName name="A108276982C_Latest">Data1!$B$243</definedName>
-    <definedName name="A108284387K">Data1!$T$1:$T$10,Data1!$T$11:$T$243</definedName>
-    <definedName name="A108284387K_Data">Data1!$T$11:$T$243</definedName>
-    <definedName name="A108284387K_Latest">Data1!$T$243</definedName>
-    <definedName name="A108285661J">Data1!$L$1:$L$10,Data1!$L$215:$L$243</definedName>
-    <definedName name="A108285661J_Data">Data1!$L$215:$L$243</definedName>
-    <definedName name="A108285661J_Latest">Data1!$L$243</definedName>
-    <definedName name="A108285662K">Data1!$D$1:$D$10,Data1!$D$215:$D$243</definedName>
-    <definedName name="A108285662K_Data">Data1!$D$215:$D$243</definedName>
-    <definedName name="A108285662K_Latest">Data1!$D$243</definedName>
-    <definedName name="A108289980R">Data1!$Q$1:$Q$10,Data1!$Q$215:$Q$243</definedName>
-    <definedName name="A108289980R_Data">Data1!$Q$215:$Q$243</definedName>
-    <definedName name="A108289980R_Latest">Data1!$Q$243</definedName>
-    <definedName name="A108289981T">Data1!$I$1:$I$10,Data1!$I$215:$I$243</definedName>
-    <definedName name="A108289981T_Data">Data1!$I$215:$I$243</definedName>
-    <definedName name="A108289981T_Latest">Data1!$I$243</definedName>
-    <definedName name="A108291366F">Data1!$S$1:$S$10,Data1!$S$11:$S$243</definedName>
-    <definedName name="A108291366F_Data">Data1!$S$11:$S$243</definedName>
-    <definedName name="A108291366F_Latest">Data1!$S$243</definedName>
-    <definedName name="A108294838W">Data1!$O$1:$O$10,Data1!$O$215:$O$243</definedName>
-    <definedName name="A108294838W_Data">Data1!$O$215:$O$243</definedName>
-    <definedName name="A108294838W_Latest">Data1!$O$243</definedName>
-    <definedName name="A108294839X">Data1!$G$1:$G$10,Data1!$G$215:$G$243</definedName>
-    <definedName name="A108294839X_Data">Data1!$G$215:$G$243</definedName>
-    <definedName name="A108294839X_Latest">Data1!$G$243</definedName>
-    <definedName name="A108297869T">Data1!$U$1:$U$10,Data1!$U$11:$U$243</definedName>
-    <definedName name="A108297869T_Data">Data1!$U$11:$U$243</definedName>
-    <definedName name="A108297869T_Latest">Data1!$U$243</definedName>
-    <definedName name="A108299283V">Data1!$P$1:$P$10,Data1!$P$11:$P$243</definedName>
-    <definedName name="A108299283V_Data">Data1!$P$11:$P$243</definedName>
-    <definedName name="A108299283V_Latest">Data1!$P$243</definedName>
-    <definedName name="A108299284W">Data1!$H$1:$H$10,Data1!$H$215:$H$243</definedName>
-    <definedName name="A108299284W_Data">Data1!$H$215:$H$243</definedName>
-    <definedName name="A108299284W_Latest">Data1!$H$243</definedName>
-    <definedName name="A108299535C">Data1!$N$1:$N$10,Data1!$N$215:$N$243</definedName>
-    <definedName name="A108299535C_Data">Data1!$N$215:$N$243</definedName>
-    <definedName name="A108299535C_Latest">Data1!$N$243</definedName>
-    <definedName name="A108299536F">Data1!$F$1:$F$10,Data1!$F$215:$F$243</definedName>
-    <definedName name="A108299536F_Data">Data1!$F$215:$F$243</definedName>
-    <definedName name="A108299536F_Latest">Data1!$F$243</definedName>
-    <definedName name="Date_Range">Data1!$A$2:$A$10,Data1!$A$11:$A$243</definedName>
-    <definedName name="Date_Range_Data">Data1!$A$11:$A$243</definedName>
+    <definedName name="A108272186T">Data1!$M$1:$M$10,Data1!$M$215:$M$245</definedName>
+    <definedName name="A108272186T_Data">Data1!$M$215:$M$245</definedName>
+    <definedName name="A108272186T_Latest">Data1!$M$245</definedName>
+    <definedName name="A108272187V">Data1!$E$1:$E$10,Data1!$E$215:$E$245</definedName>
+    <definedName name="A108272187V_Data">Data1!$E$215:$E$245</definedName>
+    <definedName name="A108272187V_Latest">Data1!$E$245</definedName>
+    <definedName name="A108273775J">Data1!$R$1:$R$10,Data1!$R$11:$R$245</definedName>
+    <definedName name="A108273775J_Data">Data1!$R$11:$R$245</definedName>
+    <definedName name="A108273775J_Latest">Data1!$R$245</definedName>
+    <definedName name="A108276722J">Data1!$K$1:$K$10,Data1!$K$215:$K$245</definedName>
+    <definedName name="A108276722J_Data">Data1!$K$215:$K$245</definedName>
+    <definedName name="A108276722J_Latest">Data1!$K$245</definedName>
+    <definedName name="A108276723K">Data1!$C$1:$C$10,Data1!$C$215:$C$245</definedName>
+    <definedName name="A108276723K_Data">Data1!$C$215:$C$245</definedName>
+    <definedName name="A108276723K_Latest">Data1!$C$245</definedName>
+    <definedName name="A108276981A">Data1!$J$1:$J$10,Data1!$J$11:$J$245</definedName>
+    <definedName name="A108276981A_Data">Data1!$J$11:$J$245</definedName>
+    <definedName name="A108276981A_Latest">Data1!$J$245</definedName>
+    <definedName name="A108276982C">Data1!$B$1:$B$10,Data1!$B$215:$B$245</definedName>
+    <definedName name="A108276982C_Data">Data1!$B$215:$B$245</definedName>
+    <definedName name="A108276982C_Latest">Data1!$B$245</definedName>
+    <definedName name="A108284387K">Data1!$T$1:$T$10,Data1!$T$11:$T$245</definedName>
+    <definedName name="A108284387K_Data">Data1!$T$11:$T$245</definedName>
+    <definedName name="A108284387K_Latest">Data1!$T$245</definedName>
+    <definedName name="A108285661J">Data1!$L$1:$L$10,Data1!$L$215:$L$245</definedName>
+    <definedName name="A108285661J_Data">Data1!$L$215:$L$245</definedName>
+    <definedName name="A108285661J_Latest">Data1!$L$245</definedName>
+    <definedName name="A108285662K">Data1!$D$1:$D$10,Data1!$D$215:$D$245</definedName>
+    <definedName name="A108285662K_Data">Data1!$D$215:$D$245</definedName>
+    <definedName name="A108285662K_Latest">Data1!$D$245</definedName>
+    <definedName name="A108289980R">Data1!$Q$1:$Q$10,Data1!$Q$215:$Q$245</definedName>
+    <definedName name="A108289980R_Data">Data1!$Q$215:$Q$245</definedName>
+    <definedName name="A108289980R_Latest">Data1!$Q$245</definedName>
+    <definedName name="A108289981T">Data1!$I$1:$I$10,Data1!$I$215:$I$245</definedName>
+    <definedName name="A108289981T_Data">Data1!$I$215:$I$245</definedName>
+    <definedName name="A108289981T_Latest">Data1!$I$245</definedName>
+    <definedName name="A108291366F">Data1!$S$1:$S$10,Data1!$S$11:$S$245</definedName>
+    <definedName name="A108291366F_Data">Data1!$S$11:$S$245</definedName>
+    <definedName name="A108291366F_Latest">Data1!$S$245</definedName>
+    <definedName name="A108294838W">Data1!$O$1:$O$10,Data1!$O$215:$O$245</definedName>
+    <definedName name="A108294838W_Data">Data1!$O$215:$O$245</definedName>
+    <definedName name="A108294838W_Latest">Data1!$O$245</definedName>
+    <definedName name="A108294839X">Data1!$G$1:$G$10,Data1!$G$215:$G$245</definedName>
+    <definedName name="A108294839X_Data">Data1!$G$215:$G$245</definedName>
+    <definedName name="A108294839X_Latest">Data1!$G$245</definedName>
+    <definedName name="A108297869T">Data1!$U$1:$U$10,Data1!$U$11:$U$245</definedName>
+    <definedName name="A108297869T_Data">Data1!$U$11:$U$245</definedName>
+    <definedName name="A108297869T_Latest">Data1!$U$245</definedName>
+    <definedName name="A108299283V">Data1!$P$1:$P$10,Data1!$P$11:$P$245</definedName>
+    <definedName name="A108299283V_Data">Data1!$P$11:$P$245</definedName>
+    <definedName name="A108299283V_Latest">Data1!$P$245</definedName>
+    <definedName name="A108299284W">Data1!$H$1:$H$10,Data1!$H$215:$H$245</definedName>
+    <definedName name="A108299284W_Data">Data1!$H$215:$H$245</definedName>
+    <definedName name="A108299284W_Latest">Data1!$H$245</definedName>
+    <definedName name="A108299535C">Data1!$N$1:$N$10,Data1!$N$215:$N$245</definedName>
+    <definedName name="A108299535C_Data">Data1!$N$215:$N$245</definedName>
+    <definedName name="A108299535C_Latest">Data1!$N$245</definedName>
+    <definedName name="A108299536F">Data1!$F$1:$F$10,Data1!$F$215:$F$245</definedName>
+    <definedName name="A108299536F_Data">Data1!$F$215:$F$245</definedName>
+    <definedName name="A108299536F_Latest">Data1!$F$245</definedName>
+    <definedName name="Date_Range">Data1!$A$2:$A$10,Data1!$A$11:$A$245</definedName>
+    <definedName name="Date_Range_Data">Data1!$A$11:$A$245</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -6169,6 +6169,58 @@
       </text>
     </comment>
     <comment ref="U243" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available for publication but included in totals where applicable, unless otherwise indicated</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T244" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available for publication but included in totals where applicable, unless otherwise indicated</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U244" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available for publication but included in totals where applicable, unless otherwise indicated</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T245" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not available for publication but included in totals where applicable, unless otherwise indicated</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U245" authorId="0">
       <text>
         <r>
           <rPr>
@@ -6371,7 +6423,7 @@
     <t>Freq.</t>
   </si>
   <si>
-    <t>© Commonwealth of Australia  2021</t>
+    <t>© Commonwealth of Australia  2022</t>
   </si>
 </sst>
 </file>
@@ -7073,10 +7125,10 @@
         <v>43647</v>
       </c>
       <c r="G12" s="10">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="H12" s="11">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I12" s="11" t="s">
         <v>25</v>
@@ -7105,10 +7157,10 @@
         <v>43647</v>
       </c>
       <c r="G13" s="10">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="H13" s="11">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I13" s="11" t="s">
         <v>25</v>
@@ -7137,10 +7189,10 @@
         <v>43647</v>
       </c>
       <c r="G14" s="10">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="H14" s="11">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I14" s="11" t="s">
         <v>25</v>
@@ -7169,10 +7221,10 @@
         <v>43647</v>
       </c>
       <c r="G15" s="10">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="H15" s="11">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I15" s="11" t="s">
         <v>25</v>
@@ -7201,10 +7253,10 @@
         <v>43647</v>
       </c>
       <c r="G16" s="10">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="H16" s="11">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I16" s="11" t="s">
         <v>25</v>
@@ -7233,10 +7285,10 @@
         <v>43647</v>
       </c>
       <c r="G17" s="10">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="H17" s="11">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I17" s="11" t="s">
         <v>25</v>
@@ -7265,10 +7317,10 @@
         <v>43647</v>
       </c>
       <c r="G18" s="10">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="H18" s="11">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I18" s="11" t="s">
         <v>25</v>
@@ -7297,10 +7349,10 @@
         <v>43647</v>
       </c>
       <c r="G19" s="10">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="H19" s="11">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I19" s="11" t="s">
         <v>25</v>
@@ -7329,10 +7381,10 @@
         <v>37438</v>
       </c>
       <c r="G20" s="10">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="H20" s="11">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="I20" s="11" t="s">
         <v>37</v>
@@ -7361,10 +7413,10 @@
         <v>43647</v>
       </c>
       <c r="G21" s="10">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="H21" s="11">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I21" s="11" t="s">
         <v>37</v>
@@ -7393,10 +7445,10 @@
         <v>43647</v>
       </c>
       <c r="G22" s="10">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="H22" s="11">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I22" s="11" t="s">
         <v>37</v>
@@ -7425,10 +7477,10 @@
         <v>43647</v>
       </c>
       <c r="G23" s="10">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="H23" s="11">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I23" s="11" t="s">
         <v>37</v>
@@ -7457,10 +7509,10 @@
         <v>43647</v>
       </c>
       <c r="G24" s="10">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="H24" s="11">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I24" s="11" t="s">
         <v>37</v>
@@ -7489,10 +7541,10 @@
         <v>43647</v>
       </c>
       <c r="G25" s="10">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="H25" s="11">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I25" s="11" t="s">
         <v>37</v>
@@ -7521,10 +7573,10 @@
         <v>37438</v>
       </c>
       <c r="G26" s="10">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="H26" s="11">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="I26" s="11" t="s">
         <v>37</v>
@@ -7553,10 +7605,10 @@
         <v>43647</v>
       </c>
       <c r="G27" s="10">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="H27" s="11">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I27" s="11" t="s">
         <v>37</v>
@@ -7585,10 +7637,10 @@
         <v>37438</v>
       </c>
       <c r="G28" s="10">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="H28" s="11">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="I28" s="11" t="s">
         <v>37</v>
@@ -7617,10 +7669,10 @@
         <v>37438</v>
       </c>
       <c r="G29" s="10">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="H29" s="11">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="I29" s="11" t="s">
         <v>37</v>
@@ -7649,10 +7701,10 @@
         <v>37438</v>
       </c>
       <c r="G30" s="10">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="H30" s="11">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="I30" s="11" t="s">
         <v>37</v>
@@ -7681,10 +7733,10 @@
         <v>37438</v>
       </c>
       <c r="G31" s="10">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="H31" s="11">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="I31" s="11" t="s">
         <v>37</v>
@@ -7739,7 +7791,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U243"/>
+  <dimension ref="A1:U245"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="10" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
@@ -8210,64 +8262,64 @@
         <v>22</v>
       </c>
       <c r="B8" s="6">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="C8" s="6">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="D8" s="6">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="E8" s="6">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="F8" s="6">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="G8" s="6">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="H8" s="6">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="I8" s="6">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="J8" s="6">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="K8" s="6">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="L8" s="6">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="M8" s="6">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="N8" s="6">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="O8" s="6">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="P8" s="6">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="Q8" s="6">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="R8" s="6">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="S8" s="6">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="T8" s="6">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="U8" s="6">
-        <v>44501</v>
+        <v>44562</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.2">
@@ -8275,64 +8327,64 @@
         <v>23</v>
       </c>
       <c r="B9" s="1">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C9" s="1">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D9" s="1">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E9" s="1">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F9" s="1">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G9" s="1">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H9" s="1">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I9" s="1">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J9" s="1">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="K9" s="1">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="L9" s="1">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M9" s="1">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="N9" s="1">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="O9" s="1">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="P9" s="1">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q9" s="1">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="R9" s="1">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="S9" s="1">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="T9" s="1">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="U9" s="1">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.2">
@@ -14044,6 +14096,128 @@
       </c>
       <c r="T243" s="9"/>
       <c r="U243" s="9"/>
+    </row>
+    <row r="244" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A244" s="10">
+        <v>44531</v>
+      </c>
+      <c r="B244" s="8">
+        <v>20591</v>
+      </c>
+      <c r="C244" s="8">
+        <v>1710</v>
+      </c>
+      <c r="D244" s="8">
+        <v>874</v>
+      </c>
+      <c r="E244" s="8">
+        <v>15517</v>
+      </c>
+      <c r="F244" s="8">
+        <v>1400</v>
+      </c>
+      <c r="G244" s="8">
+        <v>1090</v>
+      </c>
+      <c r="H244" s="8">
+        <v>10689</v>
+      </c>
+      <c r="I244" s="8">
+        <v>6005</v>
+      </c>
+      <c r="J244" s="9">
+        <v>11562.5</v>
+      </c>
+      <c r="K244" s="9">
+        <v>856.4</v>
+      </c>
+      <c r="L244" s="9">
+        <v>558.79999999999995</v>
+      </c>
+      <c r="M244" s="9">
+        <v>9525.2000000000007</v>
+      </c>
+      <c r="N244" s="9">
+        <v>456.7</v>
+      </c>
+      <c r="O244" s="9">
+        <v>165.5</v>
+      </c>
+      <c r="P244" s="9">
+        <v>5714.3</v>
+      </c>
+      <c r="Q244" s="9">
+        <v>3154</v>
+      </c>
+      <c r="R244" s="9">
+        <v>10340.700000000001</v>
+      </c>
+      <c r="S244" s="9">
+        <v>5442.8</v>
+      </c>
+      <c r="T244" s="9"/>
+      <c r="U244" s="9"/>
+    </row>
+    <row r="245" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A245" s="10">
+        <v>44562</v>
+      </c>
+      <c r="B245" s="8">
+        <v>15814</v>
+      </c>
+      <c r="C245" s="8">
+        <v>1295</v>
+      </c>
+      <c r="D245" s="8">
+        <v>612</v>
+      </c>
+      <c r="E245" s="8">
+        <v>12129</v>
+      </c>
+      <c r="F245" s="8">
+        <v>876</v>
+      </c>
+      <c r="G245" s="8">
+        <v>902</v>
+      </c>
+      <c r="H245" s="8">
+        <v>7889</v>
+      </c>
+      <c r="I245" s="8">
+        <v>4134</v>
+      </c>
+      <c r="J245" s="9">
+        <v>9112.2000000000007</v>
+      </c>
+      <c r="K245" s="9">
+        <v>678.4</v>
+      </c>
+      <c r="L245" s="9">
+        <v>345.8</v>
+      </c>
+      <c r="M245" s="9">
+        <v>7656.2</v>
+      </c>
+      <c r="N245" s="9">
+        <v>284.8</v>
+      </c>
+      <c r="O245" s="9">
+        <v>147</v>
+      </c>
+      <c r="P245" s="9">
+        <v>4186.1000000000004</v>
+      </c>
+      <c r="Q245" s="9">
+        <v>2105.9</v>
+      </c>
+      <c r="R245" s="9">
+        <v>10974</v>
+      </c>
+      <c r="S245" s="9">
+        <v>5101.2</v>
+      </c>
+      <c r="T245" s="9"/>
+      <c r="U245" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
